--- a/src/schema/코로나 치료병원.xlsx
+++ b/src/schema/코로나 치료병원.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\JavaWorkSpace\1st_Project\src\schema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90601658-E6E0-4B44-81EA-7A2D699C4A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="22056" windowHeight="9264"/>
+    <workbookView xWindow="-1740" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -717,7 +723,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1366,6 +1372,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1413,7 +1422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,9 +1455,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,6 +1507,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1656,11 +1699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2896,16 +2939,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G57">
     <sortCondition ref="E2:E57"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2918,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/schema/코로나 치료병원.xlsx
+++ b/src/schema/코로나 치료병원.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\JavaWorkSpace\1st_Project\src\schema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19 pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90601658-E6E0-4B44-81EA-7A2D699C4A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CC6D78-E8F2-45F8-BC9E-6973A2123813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5628" yWindow="648" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
   <si>
-    <t>병상수</t>
-  </si>
-  <si>
     <t>강남베드로병원</t>
   </si>
   <si>
@@ -365,359 +362,365 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>B01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>F01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>G01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>H01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>I01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I03</t>
+  </si>
+  <si>
+    <t>I04</t>
+  </si>
+  <si>
+    <t>I05</t>
+  </si>
+  <si>
+    <t>I06</t>
+  </si>
+  <si>
+    <t>J01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>L01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>M01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>N01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q02</t>
+  </si>
+  <si>
+    <t>R01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>U01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>W01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y02</t>
+  </si>
+  <si>
+    <t>hospital01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital02</t>
+  </si>
+  <si>
+    <t>hospital03</t>
+  </si>
+  <si>
+    <t>hospital04</t>
+  </si>
+  <si>
+    <t>hospital05</t>
+  </si>
+  <si>
+    <t>hospital06</t>
+  </si>
+  <si>
+    <t>hospital07</t>
+  </si>
+  <si>
+    <t>hospital08</t>
+  </si>
+  <si>
+    <t>hospital09</t>
+  </si>
+  <si>
+    <t>hospital10</t>
+  </si>
+  <si>
+    <t>hospital11</t>
+  </si>
+  <si>
+    <t>hospital12</t>
+  </si>
+  <si>
+    <t>hospital13</t>
+  </si>
+  <si>
+    <t>hospital14</t>
+  </si>
+  <si>
+    <t>hospital15</t>
+  </si>
+  <si>
+    <t>hospital16</t>
+  </si>
+  <si>
+    <t>hospital17</t>
+  </si>
+  <si>
+    <t>hospital18</t>
+  </si>
+  <si>
+    <t>hospital19</t>
+  </si>
+  <si>
+    <t>hospital20</t>
+  </si>
+  <si>
+    <t>hospital21</t>
+  </si>
+  <si>
+    <t>hospital22</t>
+  </si>
+  <si>
+    <t>hospital23</t>
+  </si>
+  <si>
+    <t>hospital24</t>
+  </si>
+  <si>
+    <t>hospital25</t>
+  </si>
+  <si>
+    <t>hospital26</t>
+  </si>
+  <si>
+    <t>hospital27</t>
+  </si>
+  <si>
+    <t>hospital28</t>
+  </si>
+  <si>
+    <t>hospital29</t>
+  </si>
+  <si>
+    <t>hospital30</t>
+  </si>
+  <si>
+    <t>hospital31</t>
+  </si>
+  <si>
+    <t>hospital32</t>
+  </si>
+  <si>
+    <t>hospital33</t>
+  </si>
+  <si>
+    <t>hospital34</t>
+  </si>
+  <si>
+    <t>hospital35</t>
+  </si>
+  <si>
+    <t>hospital36</t>
+  </si>
+  <si>
+    <t>hospital37</t>
+  </si>
+  <si>
+    <t>hospital38</t>
+  </si>
+  <si>
+    <t>hospital39</t>
+  </si>
+  <si>
+    <t>hospital40</t>
+  </si>
+  <si>
+    <t>hospital41</t>
+  </si>
+  <si>
+    <t>hospital42</t>
+  </si>
+  <si>
+    <t>hospital43</t>
+  </si>
+  <si>
+    <t>hospital44</t>
+  </si>
+  <si>
+    <t>hospital45</t>
+  </si>
+  <si>
+    <t>hospital46</t>
+  </si>
+  <si>
+    <t>hospital47</t>
+  </si>
+  <si>
+    <t>hospital48</t>
+  </si>
+  <si>
+    <t>hospital49</t>
+  </si>
+  <si>
+    <t>hospital50</t>
+  </si>
+  <si>
+    <t>hospital51</t>
+  </si>
+  <si>
+    <t>hospital52</t>
+  </si>
+  <si>
+    <t>hospital53</t>
+  </si>
+  <si>
+    <t>hospital54</t>
+  </si>
+  <si>
+    <t>hospital55</t>
+  </si>
+  <si>
+    <t>hospital56</t>
+  </si>
+  <si>
     <t>A02</t>
-  </si>
-  <si>
-    <t>B01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>C01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D02</t>
-  </si>
-  <si>
-    <t>D03</t>
-  </si>
-  <si>
-    <t>E01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>F01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>G01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>G02</t>
-  </si>
-  <si>
-    <t>G03</t>
-  </si>
-  <si>
-    <t>H01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>I01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>I02</t>
-  </si>
-  <si>
-    <t>I03</t>
-  </si>
-  <si>
-    <t>I04</t>
-  </si>
-  <si>
-    <t>I05</t>
-  </si>
-  <si>
-    <t>I06</t>
-  </si>
-  <si>
-    <t>J01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>K01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>K02</t>
-  </si>
-  <si>
-    <t>K03</t>
-  </si>
-  <si>
-    <t>K04</t>
-  </si>
-  <si>
-    <t>K05</t>
-  </si>
-  <si>
-    <t>L01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>L02</t>
-  </si>
-  <si>
-    <t>M01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>M02</t>
-  </si>
-  <si>
-    <t>M03</t>
-  </si>
-  <si>
-    <t>N01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>O01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>P01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q02</t>
-  </si>
-  <si>
-    <t>R01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>U01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>V01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>W01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>X01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y02</t>
-  </si>
-  <si>
-    <t>hospital01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospital02</t>
-  </si>
-  <si>
-    <t>hospital03</t>
-  </si>
-  <si>
-    <t>hospital04</t>
-  </si>
-  <si>
-    <t>hospital05</t>
-  </si>
-  <si>
-    <t>hospital06</t>
-  </si>
-  <si>
-    <t>hospital07</t>
-  </si>
-  <si>
-    <t>hospital08</t>
-  </si>
-  <si>
-    <t>hospital09</t>
-  </si>
-  <si>
-    <t>hospital10</t>
-  </si>
-  <si>
-    <t>hospital11</t>
-  </si>
-  <si>
-    <t>hospital12</t>
-  </si>
-  <si>
-    <t>hospital13</t>
-  </si>
-  <si>
-    <t>hospital14</t>
-  </si>
-  <si>
-    <t>hospital15</t>
-  </si>
-  <si>
-    <t>hospital16</t>
-  </si>
-  <si>
-    <t>hospital17</t>
-  </si>
-  <si>
-    <t>hospital18</t>
-  </si>
-  <si>
-    <t>hospital19</t>
-  </si>
-  <si>
-    <t>hospital20</t>
-  </si>
-  <si>
-    <t>hospital21</t>
-  </si>
-  <si>
-    <t>hospital22</t>
-  </si>
-  <si>
-    <t>hospital23</t>
-  </si>
-  <si>
-    <t>hospital24</t>
-  </si>
-  <si>
-    <t>hospital25</t>
-  </si>
-  <si>
-    <t>hospital26</t>
-  </si>
-  <si>
-    <t>hospital27</t>
-  </si>
-  <si>
-    <t>hospital28</t>
-  </si>
-  <si>
-    <t>hospital29</t>
-  </si>
-  <si>
-    <t>hospital30</t>
-  </si>
-  <si>
-    <t>hospital31</t>
-  </si>
-  <si>
-    <t>hospital32</t>
-  </si>
-  <si>
-    <t>hospital33</t>
-  </si>
-  <si>
-    <t>hospital34</t>
-  </si>
-  <si>
-    <t>hospital35</t>
-  </si>
-  <si>
-    <t>hospital36</t>
-  </si>
-  <si>
-    <t>hospital37</t>
-  </si>
-  <si>
-    <t>hospital38</t>
-  </si>
-  <si>
-    <t>hospital39</t>
-  </si>
-  <si>
-    <t>hospital40</t>
-  </si>
-  <si>
-    <t>hospital41</t>
-  </si>
-  <si>
-    <t>hospital42</t>
-  </si>
-  <si>
-    <t>hospital43</t>
-  </si>
-  <si>
-    <t>hospital44</t>
-  </si>
-  <si>
-    <t>hospital45</t>
-  </si>
-  <si>
-    <t>hospital46</t>
-  </si>
-  <si>
-    <t>hospital47</t>
-  </si>
-  <si>
-    <t>hospital48</t>
-  </si>
-  <si>
-    <t>hospital49</t>
-  </si>
-  <si>
-    <t>hospital50</t>
-  </si>
-  <si>
-    <t>hospital51</t>
-  </si>
-  <si>
-    <t>hospital52</t>
-  </si>
-  <si>
-    <t>hospital53</t>
-  </si>
-  <si>
-    <t>hospital54</t>
-  </si>
-  <si>
-    <t>hospital55</t>
-  </si>
-  <si>
-    <t>hospital56</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed_No</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1702,9 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1717,1225 +1718,1313 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D33" si="0">PRODUCT(B2,2)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="B3" s="1">
         <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1">
         <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
         <v>238</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1">
         <v>250</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
+      <c r="F10" s="1">
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1">
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1">
         <v>420</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1">
         <v>270</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
         <v>300</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1">
         <v>160</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>57</v>
+      <c r="F22" s="1">
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
         <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="B24" s="1">
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1">
         <v>312</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1">
         <v>120</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1">
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1">
         <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1">
         <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1">
         <v>145</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1">
         <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1">
         <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D57" si="1">PRODUCT(B34,2)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1">
         <v>138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1">
         <v>208</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1">
         <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B39" s="1">
         <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="1"/>
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1">
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1">
         <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1">
         <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1">
         <v>352</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="1"/>
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1">
         <v>360</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1">
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1">
         <v>372</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1">
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="1">
         <v>513</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="1"/>
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1">
         <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1">
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B55" s="1">
         <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56" s="1">
         <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1">
         <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
